--- a/data/Translate.xlsx
+++ b/data/Translate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F7454-A830-4F1B-8B95-B83ADE3BC0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEB8E7B-280C-4A39-AAF1-7A68707D1D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="1680" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11115" yWindow="5505" windowWidth="23130" windowHeight="16245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,6 +536,9 @@
         <v>19</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
